--- a/lampa.xlsx
+++ b/lampa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labs\PhaseFloat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labs\phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t xml:space="preserve">  Напр см</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t xml:space="preserve"> уст</t>
+  </si>
+  <si>
+    <t>Время задержки</t>
+  </si>
+  <si>
+    <t>срез</t>
+  </si>
+  <si>
+    <t>частота</t>
   </si>
 </sst>
 </file>
@@ -135,9 +144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -442,33 +452,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -485,7 +496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -514,7 +525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -528,7 +539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -542,7 +553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -556,7 +567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -570,15 +581,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>43</v>
       </c>
       <c r="B9">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f>SQRT((60*10^-3)^2*J11^2-4)</f>
+        <v>1309.7984730484304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
@@ -588,16 +603,33 @@
       <c r="G10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>70</v>
       </c>
       <c r="B11">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f>2/SQRT(J11^2-M9^2)</f>
+        <v>9.1782397655196501E-5</v>
+      </c>
+      <c r="J11" s="2">
+        <f>21.83*1000</f>
+        <v>21830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>78</v>
       </c>
@@ -605,7 +637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>82</v>
       </c>
@@ -613,7 +645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>86</v>
       </c>
@@ -621,7 +653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>90</v>
       </c>
@@ -629,7 +661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>93</v>
       </c>
